--- a/src/test/java/excel/imports/import.xlsx
+++ b/src/test/java/excel/imports/import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myspring\springmvc\springmvc-core\src\test\java\excel\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\poi-excel\src\test\java\excel\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>经营现状</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>9.23</t>
-  </si>
-  <si>
-    <t>导出参考代码！</t>
-  </si>
-  <si>
-    <t>注释:</t>
   </si>
   <si>
     <t>风采</t>
@@ -177,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -201,40 +195,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="0"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="0"/>
       </right>
@@ -268,31 +231,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -309,23 +252,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -374,6 +309,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8277226" y="800100"/>
+          <a:ext cx="514350" cy="326121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>440421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="1419225"/>
           <a:ext cx="514350" cy="326121"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -652,7 +625,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,82 +637,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -827,44 +800,10 @@
         <v>43116</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-    </row>
+    <row r="6" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="I3"/>
     <mergeCell ref="H3"/>
@@ -874,13 +813,11 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A6:C7"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D6:N7"/>
     <mergeCell ref="J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
